--- a/cases.xlsx
+++ b/cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choeoliv\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choeoliv\Desktop\Eon Eoff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{3A0844A2-53A9-452B-BD24-64E92007E531}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA25870-18B2-4A6B-B281-2B51D8A00371}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38676" windowHeight="11436" xr2:uid="{07024F4D-E5C7-4B8A-AB6A-143DE046C366}"/>
   </bookViews>
@@ -84,106 +84,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T25V20I10</t>
+    <t>T125V020I050</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T25V20I20</t>
+    <t>T125V020I040</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T25V20I30</t>
-  </si>
-  <si>
-    <t>T25V20I40</t>
-  </si>
-  <si>
-    <t>T25V20I50</t>
-  </si>
-  <si>
-    <t>T25V30I10</t>
+    <t>T125V020I010</t>
+  </si>
+  <si>
+    <t>T125V020I020</t>
+  </si>
+  <si>
+    <t>T125V020I030</t>
+  </si>
+  <si>
+    <t>T125V030I010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T25V30I20</t>
+    <t>T125V030I020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T25V30I30</t>
-  </si>
-  <si>
-    <t>T25V30I40</t>
-  </si>
-  <si>
-    <t>T25V30I50</t>
-  </si>
-  <si>
-    <t>T25V35I10</t>
+    <t>T125V030I030</t>
+  </si>
+  <si>
+    <t>T125V030I040</t>
+  </si>
+  <si>
+    <t>T125V030I050</t>
+  </si>
+  <si>
+    <t>T125V035I010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T25V35I20</t>
+    <t>T125V035I020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T25V35I30</t>
-  </si>
-  <si>
-    <t>T25V35I40</t>
-  </si>
-  <si>
-    <t>T25V35I50</t>
-  </si>
-  <si>
-    <t>T125V35I10</t>
+    <t>T125V035I030</t>
+  </si>
+  <si>
+    <t>T125V035I040</t>
+  </si>
+  <si>
+    <t>T125V035I050</t>
+  </si>
+  <si>
+    <t>T025V020I010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T125V20I10</t>
+    <t>T025V020I020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T125V20I20</t>
+    <t>T025V020I030</t>
+  </si>
+  <si>
+    <t>T025V020I040</t>
+  </si>
+  <si>
+    <t>T025V020I050</t>
+  </si>
+  <si>
+    <t>T025V030I010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T125V20I30</t>
-  </si>
-  <si>
-    <t>T125V20I40</t>
-  </si>
-  <si>
-    <t>T125V20I50</t>
-  </si>
-  <si>
-    <t>T125V30I10</t>
+    <t>T025V030I020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T125V30I20</t>
+    <t>T025V030I030</t>
+  </si>
+  <si>
+    <t>T025V030I040</t>
+  </si>
+  <si>
+    <t>T025V030I050</t>
+  </si>
+  <si>
+    <t>T025V035I010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T125V30I30</t>
-  </si>
-  <si>
-    <t>T125V30I40</t>
-  </si>
-  <si>
-    <t>T125V30I50</t>
-  </si>
-  <si>
-    <t>T125V35I20</t>
+    <t>T025V035I020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T125V35I30</t>
-  </si>
-  <si>
-    <t>T125V35I40</t>
-  </si>
-  <si>
-    <t>T125V35I50</t>
+    <t>T025V035I030</t>
+  </si>
+  <si>
+    <t>T025V035I040</t>
+  </si>
+  <si>
+    <t>T025V035I050</t>
   </si>
 </sst>
 </file>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39FF427-EF33-4184-98B8-1EBCB416FB1F}">
   <dimension ref="A1:AE23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -562,94 +562,94 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.4">
@@ -1509,94 +1509,94 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="X14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="Y14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="Z14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="AA14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="AB14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="AC14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="AD14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="AE14" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE14" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.4">
@@ -1729,7 +1729,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f t="shared" ref="B15:Q17" si="1">".PARAM " &amp;$A3&amp; "=" &amp;B3</f>
+        <f t="shared" ref="B16:O17" si="1">".PARAM " &amp;$A3&amp; "=" &amp;B3</f>
         <v>.PARAM tr=60n</v>
       </c>
       <c r="C16" s="1" t="str">
